--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Myoc-Fzd3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Myoc-Fzd3.xlsx
@@ -534,46 +534,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.714093</v>
+        <v>0.138156</v>
       </c>
       <c r="H2">
-        <v>2.142279</v>
+        <v>0.414468</v>
       </c>
       <c r="I2">
-        <v>0.001553869939232348</v>
+        <v>0.0003010053794496939</v>
       </c>
       <c r="J2">
-        <v>0.001553869939232348</v>
+        <v>0.0003010053794496939</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.129292</v>
+        <v>0.196431</v>
       </c>
       <c r="N2">
-        <v>0.387876</v>
+        <v>0.589293</v>
       </c>
       <c r="O2">
-        <v>0.06615700391713267</v>
+        <v>0.09717285149889213</v>
       </c>
       <c r="P2">
-        <v>0.06615700391713268</v>
+        <v>0.09717285149889213</v>
       </c>
       <c r="Q2">
-        <v>0.09232651215599999</v>
+        <v>0.027138121236</v>
       </c>
       <c r="R2">
-        <v>0.8309386094039999</v>
+        <v>0.244243091124</v>
       </c>
       <c r="S2">
-        <v>0.0001027993796565091</v>
+        <v>2.924955103763278E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001027993796565092</v>
+        <v>2.924955103763278E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.714093</v>
+        <v>0.138156</v>
       </c>
       <c r="H3">
-        <v>2.142279</v>
+        <v>0.414468</v>
       </c>
       <c r="I3">
-        <v>0.001553869939232348</v>
+        <v>0.0003010053794496939</v>
       </c>
       <c r="J3">
-        <v>0.001553869939232348</v>
+        <v>0.0003010053794496939</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.4307096666666666</v>
+        <v>0.4307096666666667</v>
       </c>
       <c r="N3">
         <v>1.292129</v>
       </c>
       <c r="O3">
-        <v>0.2203884316493949</v>
+        <v>0.2130686423127578</v>
       </c>
       <c r="P3">
-        <v>0.220388431649395</v>
+        <v>0.2130686423127578</v>
       </c>
       <c r="Q3">
-        <v>0.307566757999</v>
+        <v>0.05950512470800001</v>
       </c>
       <c r="R3">
-        <v>2.768100821990999</v>
+        <v>0.5355461223720001</v>
       </c>
       <c r="S3">
-        <v>0.0003424549588945577</v>
+        <v>6.413480752818277E-05</v>
       </c>
       <c r="T3">
-        <v>0.0003424549588945577</v>
+        <v>6.413480752818277E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.714093</v>
+        <v>0.138156</v>
       </c>
       <c r="H4">
-        <v>2.142279</v>
+        <v>0.414468</v>
       </c>
       <c r="I4">
-        <v>0.001553869939232348</v>
+        <v>0.0003010053794496939</v>
       </c>
       <c r="J4">
-        <v>0.001553869939232348</v>
+        <v>0.0003010053794496939</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>4.182957</v>
       </c>
       <c r="O4">
-        <v>0.7134545644334723</v>
+        <v>0.68975850618835</v>
       </c>
       <c r="P4">
-        <v>0.7134545644334724</v>
+        <v>0.68975850618835</v>
       </c>
       <c r="Q4">
-        <v>0.995673437667</v>
+        <v>0.192633535764</v>
       </c>
       <c r="R4">
-        <v>8.961060939003</v>
+        <v>1.733701821876</v>
       </c>
       <c r="S4">
-        <v>0.001108615600681281</v>
+        <v>0.0002076210208838783</v>
       </c>
       <c r="T4">
-        <v>0.001108615600681281</v>
+        <v>0.0002076210208838783</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>1360.232666</v>
       </c>
       <c r="I5">
-        <v>0.9866243612803347</v>
+        <v>0.9878623917146768</v>
       </c>
       <c r="J5">
-        <v>0.9866243612803348</v>
+        <v>0.9878623917146769</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.129292</v>
+        <v>0.196431</v>
       </c>
       <c r="N5">
-        <v>0.387876</v>
+        <v>0.589293</v>
       </c>
       <c r="O5">
-        <v>0.06615700391713267</v>
+        <v>0.09717285149889213</v>
       </c>
       <c r="P5">
-        <v>0.06615700391713268</v>
+        <v>0.09717285149889213</v>
       </c>
       <c r="Q5">
-        <v>58.62240061749065</v>
+        <v>89.06395427168198</v>
       </c>
       <c r="R5">
-        <v>527.601605557416</v>
+        <v>801.5755884451379</v>
       </c>
       <c r="S5">
-        <v>0.06527211173396162</v>
+        <v>0.09599340549143069</v>
       </c>
       <c r="T5">
-        <v>0.06527211173396164</v>
+        <v>0.09599340549143071</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1360.232666</v>
       </c>
       <c r="I6">
-        <v>0.9866243612803347</v>
+        <v>0.9878623917146768</v>
       </c>
       <c r="J6">
-        <v>0.9866243612803348</v>
+        <v>0.9878623917146769</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,16 +800,16 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4307096666666666</v>
+        <v>0.4307096666666667</v>
       </c>
       <c r="N6">
         <v>1.292129</v>
       </c>
       <c r="O6">
-        <v>0.2203884316493949</v>
+        <v>0.2130686423127578</v>
       </c>
       <c r="P6">
-        <v>0.220388431649395</v>
+        <v>0.2130686423127578</v>
       </c>
       <c r="Q6">
         <v>195.2884527206571</v>
@@ -818,10 +818,10 @@
         <v>1757.596074485914</v>
       </c>
       <c r="S6">
-        <v>0.217440595609659</v>
+        <v>0.2104824985944799</v>
       </c>
       <c r="T6">
-        <v>0.217440595609659</v>
+        <v>0.21048249859448</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1360.232666</v>
       </c>
       <c r="I7">
-        <v>0.9866243612803347</v>
+        <v>0.9878623917146768</v>
       </c>
       <c r="J7">
-        <v>0.9866243612803348</v>
+        <v>0.9878623917146769</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>4.182957</v>
       </c>
       <c r="O7">
-        <v>0.7134545644334723</v>
+        <v>0.68975850618835</v>
       </c>
       <c r="P7">
-        <v>0.7134545644334724</v>
+        <v>0.68975850618835</v>
       </c>
       <c r="Q7">
         <v>632.199416874818</v>
@@ -880,10 +880,10 @@
         <v>5689.794751873362</v>
       </c>
       <c r="S7">
-        <v>0.7039116539367141</v>
+        <v>0.6813864876287662</v>
       </c>
       <c r="T7">
-        <v>0.7039116539367142</v>
+        <v>0.6813864876287662</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.432785666666667</v>
+        <v>5.432785666666668</v>
       </c>
       <c r="H8">
         <v>16.298357</v>
       </c>
       <c r="I8">
-        <v>0.01182176878043295</v>
+        <v>0.01183660290587349</v>
       </c>
       <c r="J8">
-        <v>0.01182176878043295</v>
+        <v>0.01183660290587349</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.129292</v>
+        <v>0.196431</v>
       </c>
       <c r="N8">
-        <v>0.387876</v>
+        <v>0.589293</v>
       </c>
       <c r="O8">
-        <v>0.06615700391713267</v>
+        <v>0.09717285149889213</v>
       </c>
       <c r="P8">
-        <v>0.06615700391713268</v>
+        <v>0.09717285149889213</v>
       </c>
       <c r="Q8">
-        <v>0.7024157244146666</v>
+        <v>1.067167521289</v>
       </c>
       <c r="R8">
-        <v>6.321741519732</v>
+        <v>9.604507691601</v>
       </c>
       <c r="S8">
-        <v>0.000782092803514539</v>
+        <v>0.0011501964564238</v>
       </c>
       <c r="T8">
-        <v>0.0007820928035145393</v>
+        <v>0.0011501964564238</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.432785666666667</v>
+        <v>5.432785666666668</v>
       </c>
       <c r="H9">
         <v>16.298357</v>
       </c>
       <c r="I9">
-        <v>0.01182176878043295</v>
+        <v>0.01183660290587349</v>
       </c>
       <c r="J9">
-        <v>0.01182176878043295</v>
+        <v>0.01183660290587349</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.4307096666666666</v>
+        <v>0.4307096666666667</v>
       </c>
       <c r="N9">
         <v>1.292129</v>
       </c>
       <c r="O9">
-        <v>0.2203884316493949</v>
+        <v>0.2130686423127578</v>
       </c>
       <c r="P9">
-        <v>0.220388431649395</v>
+        <v>0.2130686423127578</v>
       </c>
       <c r="Q9">
-        <v>2.339953303561444</v>
+        <v>2.339953303561445</v>
       </c>
       <c r="R9">
-        <v>21.059579732053</v>
+        <v>21.05957973205301</v>
       </c>
       <c r="S9">
-        <v>0.002605381080841397</v>
+        <v>0.002522008910749709</v>
       </c>
       <c r="T9">
-        <v>0.002605381080841397</v>
+        <v>0.002522008910749709</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.432785666666667</v>
+        <v>5.432785666666668</v>
       </c>
       <c r="H10">
         <v>16.298357</v>
       </c>
       <c r="I10">
-        <v>0.01182176878043295</v>
+        <v>0.01183660290587349</v>
       </c>
       <c r="J10">
-        <v>0.01182176878043295</v>
+        <v>0.01183660290587349</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>4.182957</v>
       </c>
       <c r="O10">
-        <v>0.7134545644334723</v>
+        <v>0.68975850618835</v>
       </c>
       <c r="P10">
-        <v>0.7134545644334724</v>
+        <v>0.68975850618835</v>
       </c>
       <c r="Q10">
-        <v>7.575036277961001</v>
+        <v>7.575036277961002</v>
       </c>
       <c r="R10">
-        <v>68.175326501649</v>
+        <v>68.17532650164901</v>
       </c>
       <c r="S10">
-        <v>0.008434294896077008</v>
+        <v>0.008164397538699984</v>
       </c>
       <c r="T10">
-        <v>0.00843429489607701</v>
+        <v>0.008164397538699984</v>
       </c>
     </row>
   </sheetData>
